--- a/docs/data_format/DataFormatFromBD.xlsx
+++ b/docs/data_format/DataFormatFromBD.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\python\BD\DataProcessing\docs\data_format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62755EEF-C961-4963-BE42-0EBAE8D4DBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F60957B-203A-4222-BF53-30CAA5279961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="銷售檔案配對規則" sheetId="1" r:id="rId1"/>
-    <sheet name="庫存檔案配對規則" sheetId="2" r:id="rId2"/>
+    <sheet name="SaleFileMappingRule" sheetId="1" r:id="rId1"/>
+    <sheet name="InventoryFileMappingRule" sheetId="2" r:id="rId2"/>
     <sheet name="經銷商銷售檔案規定格式" sheetId="3" r:id="rId3"/>
     <sheet name="經銷商庫存檔案規定格式" sheetId="4" r:id="rId4"/>
     <sheet name="BD資料庫銷售檔案規定格式" sheetId="5" r:id="rId5"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
   <si>
     <t>Record ID</t>
   </si>
@@ -267,26 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Before conversion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>After conversion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Required/Optional</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rule_description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Transaction Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>second_rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rule_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,6 +316,42 @@
   </si>
   <si>
     <t>DateFormatChang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seller ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecondRule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +735,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -744,50 +752,46 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -795,7 +799,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>71</v>
@@ -803,7 +807,7 @@
       <c r="D3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>64</v>
@@ -822,7 +826,7 @@
       <c r="D4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>52</v>
@@ -841,7 +845,7 @@
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>53</v>
@@ -851,16 +855,14 @@
       <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>54</v>
@@ -879,7 +881,7 @@
       <c r="D7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>55</v>
@@ -887,19 +889,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>56</v>
@@ -910,7 +912,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>71</v>
@@ -918,7 +920,7 @@
       <c r="D9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>66</v>
@@ -926,20 +928,20 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>67</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>57</v>
@@ -958,7 +960,7 @@
       <c r="D11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>58</v>
@@ -968,18 +970,14 @@
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11">
         <v>0</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>51</v>
@@ -989,16 +987,12 @@
       <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>59</v>
@@ -1008,16 +1002,12 @@
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>60</v>
@@ -1027,19 +1017,15 @@
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
         <v>73</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>61</v>
@@ -1049,19 +1035,15 @@
       <c r="A16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11">
         <v>1</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>62</v>
@@ -1069,19 +1051,17 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>70</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>63</v>
@@ -1095,32 +1075,28 @@
         <v>69</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>51</v>
@@ -1130,12 +1106,8 @@
       <c r="A20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1147,12 +1119,8 @@
       <c r="A21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -1202,12 +1170,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8055BFF-E715-491E-AEE8-5921829942E2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="97.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="10"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1465,7 +1659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F64A064-3220-4816-AF6A-CB2153C0D375}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
